--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ntn4-Dcc.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ntn4-Dcc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +528,57 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.68961506484348</v>
+        <v>0.8370283333333334</v>
       </c>
       <c r="H2">
-        <v>0.68961506484348</v>
+        <v>2.511085</v>
       </c>
       <c r="I2">
-        <v>0.008752463356629096</v>
+        <v>0.01051838439934535</v>
       </c>
       <c r="J2">
-        <v>0.008752463356629096</v>
+        <v>0.01051838439934535</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08872069687590731</v>
+        <v>0.092904</v>
       </c>
       <c r="N2">
-        <v>0.08872069687590731</v>
+        <v>0.278712</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9572435868814848</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9572435868814848</v>
       </c>
       <c r="Q2">
-        <v>0.06118312912903755</v>
+        <v>0.07776328028</v>
       </c>
       <c r="R2">
-        <v>0.06118312912903755</v>
+        <v>0.69986952252</v>
       </c>
       <c r="S2">
-        <v>0.008752463356629096</v>
+        <v>0.01006865601062759</v>
       </c>
       <c r="T2">
-        <v>0.008752463356629096</v>
+        <v>0.01006865601062759</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.6635738621019</v>
+        <v>0.8370283333333334</v>
       </c>
       <c r="H3">
-        <v>34.6635738621019</v>
+        <v>2.511085</v>
       </c>
       <c r="I3">
-        <v>0.4399434923984918</v>
+        <v>0.01051838439934535</v>
       </c>
       <c r="J3">
-        <v>0.4399434923984918</v>
+        <v>0.01051838439934535</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.08872069687590731</v>
+        <v>0.004149666666666667</v>
       </c>
       <c r="N3">
-        <v>0.08872069687590731</v>
+        <v>0.012449</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.04275641311851519</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.04275641311851518</v>
       </c>
       <c r="Q3">
-        <v>3.075376429255166</v>
+        <v>0.003473388573888889</v>
       </c>
       <c r="R3">
-        <v>3.075376429255166</v>
+        <v>0.031260497165</v>
       </c>
       <c r="S3">
-        <v>0.4399434923984918</v>
+        <v>0.0004497283887177551</v>
       </c>
       <c r="T3">
-        <v>0.4399434923984918</v>
+        <v>0.000449728388717755</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +652,238 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.4377795974949</v>
+        <v>34.839961</v>
       </c>
       <c r="H4">
-        <v>43.4377795974949</v>
+        <v>104.519883</v>
       </c>
       <c r="I4">
-        <v>0.5513040442448791</v>
+        <v>0.437810869312907</v>
       </c>
       <c r="J4">
-        <v>0.5513040442448791</v>
+        <v>0.4378108693129071</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.08872069687590731</v>
+        <v>0.092904</v>
       </c>
       <c r="N4">
-        <v>0.08872069687590731</v>
+        <v>0.278712</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9572435868814848</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9572435868814848</v>
       </c>
       <c r="Q4">
-        <v>3.853830076631816</v>
+        <v>3.236771736744</v>
       </c>
       <c r="R4">
-        <v>3.853830076631816</v>
+        <v>29.130945630696</v>
       </c>
       <c r="S4">
-        <v>0.5513040442448791</v>
+        <v>0.4190916469167881</v>
       </c>
       <c r="T4">
-        <v>0.5513040442448791</v>
+        <v>0.4190916469167882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>34.839961</v>
+      </c>
+      <c r="H5">
+        <v>104.519883</v>
+      </c>
+      <c r="I5">
+        <v>0.437810869312907</v>
+      </c>
+      <c r="J5">
+        <v>0.4378108693129071</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.004149666666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.012449</v>
+      </c>
+      <c r="O5">
+        <v>0.04275641311851519</v>
+      </c>
+      <c r="P5">
+        <v>0.04275641311851518</v>
+      </c>
+      <c r="Q5">
+        <v>0.1445742248296667</v>
+      </c>
+      <c r="R5">
+        <v>1.301168023467</v>
+      </c>
+      <c r="S5">
+        <v>0.01871922239611892</v>
+      </c>
+      <c r="T5">
+        <v>0.01871922239611892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>43.90066266666667</v>
+      </c>
+      <c r="H6">
+        <v>131.701988</v>
+      </c>
+      <c r="I6">
+        <v>0.5516707462877476</v>
+      </c>
+      <c r="J6">
+        <v>0.5516707462877476</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.092904</v>
+      </c>
+      <c r="N6">
+        <v>0.278712</v>
+      </c>
+      <c r="O6">
+        <v>0.9572435868814848</v>
+      </c>
+      <c r="P6">
+        <v>0.9572435868814848</v>
+      </c>
+      <c r="Q6">
+        <v>4.078547164384</v>
+      </c>
+      <c r="R6">
+        <v>36.706924479456</v>
+      </c>
+      <c r="S6">
+        <v>0.5280832839540691</v>
+      </c>
+      <c r="T6">
+        <v>0.5280832839540691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>43.90066266666667</v>
+      </c>
+      <c r="H7">
+        <v>131.701988</v>
+      </c>
+      <c r="I7">
+        <v>0.5516707462877476</v>
+      </c>
+      <c r="J7">
+        <v>0.5516707462877476</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.004149666666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.012449</v>
+      </c>
+      <c r="O7">
+        <v>0.04275641311851519</v>
+      </c>
+      <c r="P7">
+        <v>0.04275641311851518</v>
+      </c>
+      <c r="Q7">
+        <v>0.1821731165124445</v>
+      </c>
+      <c r="R7">
+        <v>1.639558048612</v>
+      </c>
+      <c r="S7">
+        <v>0.02358746233367852</v>
+      </c>
+      <c r="T7">
+        <v>0.02358746233367851</v>
       </c>
     </row>
   </sheetData>
